--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,26 +1577,26 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1766,37 +1766,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1826,52 +1826,52 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,37 +1946,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1997,26 +1997,26 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2837,21 +2837,21 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3116,50 +3116,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>45</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,26 +1577,26 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1766,37 +1766,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1826,52 +1826,52 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,37 +1946,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1997,26 +1997,26 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2837,21 +2837,21 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3116,20 +3116,50 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
